--- a/errata.xlsx
+++ b/errata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,6 +1040,391 @@
 \bm{\Sigma}^{-1} \bm{\mu}  = \bm{\Sigma}_{xx}^{ - 1}{\bm{\mu}_x} + \bm{\Sigma}_{yy}^{ - 1}{\bm{\mu}_y}.
 \end{array}
 \end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.5 更新</t>
+    <rPh sb="7" eb="8">
+      <t>gju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P52. 第二段</t>
+    <rPh sb="5" eb="6">
+      <t>txh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wdm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我们能用\textbf{单位四元数}表示三维空间中任意一个旋转，不过这种表达方式和复数有着微妙的不同。在复数中，乘以$i$意味着旋转$90^\circ$。这是否意味着四元数中，乘$i$就是绕$i$轴旋转$90^\circ$？那么，$ij=-k$是否意味着，先绕$i$转$90^\circ$，再绕$j$转$90^\circ$，就等于绕$k$转$-90^\circ$？读者可以找一部手机比划一下——然后你会发现情况并不是这样。正确的情形应该是，乘以$i$对应着旋转$180^\circ$，这样才能保证$ij=-k$的性质。而$i^2=-1$，意味着绕$i$轴旋转$360^\circ$后得到一个相反的东西。这个东西要旋转两周才会和它原先的样子相等。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我们能用\textbf{单位四元数}表示三维空间中任意一个旋转，不过这种表达方式和复数有着微妙的不同。在复数中，乘以$i$意味着旋转$90^\circ$。这是否意味着四元数中，乘$i$就是绕$i$轴旋转$90^\circ$？那么，$ij=k$是否意味着，先绕$i$转$90^\circ$，再绕$j$转$90^\circ$，就等于绕$k$转$90^\circ$？读者可以找一部手机比划一下——然后你会发现情况并不是这样。正确的情形应该是，乘以$i$对应着旋转$180^\circ$，这样才能保证$ij=k$的性质。而$i^2=-1$，意味着绕$i$轴旋转$360^\circ$后得到一个相反的东西。这个东西要旋转两周才会和它原先的样子相等。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ij=-k的描述替换为ij=k，-90度替换为90度</t>
+    <rPh sb="5" eb="6">
+      <t>r</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ras</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fwr</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>o</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yac</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fwr</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>o</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yac</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P54. 式(3.33)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\begin{equation}
+ \bm{q}_a \cdot \bm{q}_b = s_a s_b + x_a x_b i + y_a y_b j + z_a z_b k.
+ \end{equation} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+ \bm{q}_a \cdot \bm{q}_b = s_a s_b + x_a x_b  + y_a y_b  + z_a z_b .
+ \end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点乘结果通常定义为标量</t>
+    <rPh sb="0" eb="1">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tux</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xfj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ceip</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pgy</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>o</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sfi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jgj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P110. 式(6.14)</t>
+    <rPh sb="6" eb="7">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\frac{ \mathrm{d} f }{ \mathrm{d} \bm{x} } = \bm{0}.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\frac{ \mathrm{d} \left( \frac{1}{2}{\left\| {f\left( \bm{x} \right)} \right\|^2_2} \right) }{ \mathrm{d} \bm{x} } = \bm{0}.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应对整个目标函数求</t>
+    <rPh sb="0" eb="1">
+      <t>yic</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gki</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wh</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hhsf</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bio</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fiy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录A 式(A.10)</t>
+    <rPh sb="0" eb="1">
+      <t>bwv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">\begin{equation}
+p\left( \bm{y} \right) = N\left( {\bm{A}{\bm{\mu}_x} + \bm{b}, \bm{R} + \bm{A} {\bm{\Sigma}_{xx}}{\bm{A}^\mathrm{T}}} + \bm{R} \right).
+\end{equation}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+p\left( \bm{y} \right) = N\left( {\bm{A}{\bm{\mu}_x} + \bm{b}, \bm{R} + \bm{A} {\bm{\Sigma}_{xx}}{\bm{A}^\mathrm{T}}} \right).
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧多写了一个R（这附录到底是不是我写的怎么全是错……）</t>
+    <rPh sb="0" eb="1">
+      <t>dk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wmj</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qq</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pgn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>p</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bwv</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gcy</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>i</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>q</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pgn</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>r</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>thtc</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wg</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>j</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qaj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P272. 式(11.2)</t>
+    <rPh sb="6" eb="7">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\bm{\Delta T}_{ij} =\bm{T}_i^{-1} \bm{T}_j.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\bm{T}_{ij} =\bm{T}_i^{-1} \bm{T}_j.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P272. 式(11.3) 以及前面的描述</t>
+    <rPh sb="6" eb="7">
+      <t>aa</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>c</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ey</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>uej</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dm</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>r</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ras</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带 \Delta T的部分</t>
+    <rPh sb="0" eb="1">
+      <t>gkp</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>r</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ukwv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉\Delta</t>
+    <rPh sb="0" eb="1">
+      <t>fcu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>rhj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面推导不带\Delta，保持符号一致</t>
+    <rPh sb="0" eb="1">
+      <t>rgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rwn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>i</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gkp</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wkr</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>twk</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>g</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gcft</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P273. 式(11.7)</t>
+    <rPh sb="6" eb="7">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\begin{array}{ll}
+\hat{ \bm{e}}_{ij} &amp;= \ln \left( \bm{T}_{ij}^{-1}  \bm{T}_i^{-1} \exp((-\bm{\delta \xi}_i)^\wedge) \exp(\delta \bm{\xi}_j^\wedge) \bm{T}_j  \right)^\vee\\
+&amp;= \ln \left( \bm{T}_{ij}^{-1} \bm{T}_i^{-1} \bm{T}_j \exp \left( \left(- \mathrm{Ad}(\bm{T}_j^{-1}) \bm{\delta \xi}_i \right)^\wedge \right) \exp( \left( \mathrm{Ad}(\bm{T}_j^{-1})  \bm{\delta\xi}_j\right)^\wedge \right)^\vee \\ 
+&amp;\approx \ln \left( \bm{T}_{ij}^{-1} \bm{T}_i^{-1} \bm{T}_j \left[ \bm{I} - (\mathrm{Ad}(\bm{T}_j^{-1}) \bm{\delta \xi}_i)^\wedge + (\mathrm{Ad}(\bm{T}_j^{-1})  \bm{\delta \xi}_j)^{\wedge} \right] \right)^\vee \\
+&amp; \approx \bm{e}_{ij} + \frac{\partial \bm{e}_{ij}}{\partial \bm{\delta \xi}_i} \bm{\delta \xi}_i + \frac{\partial \bm{e}_{ij}}{\partial \bm{\delta \xi}_j} \bm{\delta \xi}_j
+\end{array}.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\begin{array}{ll}
+\hat{ \bm{e}}_{ij} &amp;= \ln \left( \bm{T}_{ij}^{-1}  \bm{T}_i^{-1} \exp((-\bm{\delta \xi}_i)^\wedge) \exp(\delta \bm{\xi}_j^\wedge) \bm{T}_j  \right)^\vee\\
+&amp;= \ln \left( \bm{T}_{ij}^{-1} \bm{T}_i^{-1} \bm{T}_j \exp \left( \left(- \mathrm{Ad}(\bm{T}_j^{-1}) \bm{\delta \xi}_i \right)^\wedge \right) \exp \left( \left( \mathrm{Ad}(\bm{T}_j^{-1})  \bm{\delta\xi}_j\right)^\wedge \right) \right)^\vee \\ 
+&amp;\approx \ln \left( \bm{T}_{ij}^{-1} \bm{T}_i^{-1} \bm{T}_j \left[ \bm{I} - (\mathrm{Ad}(\bm{T}_j^{-1}) \bm{\delta \xi}_i)^\wedge + (\mathrm{Ad}(\bm{T}_j^{-1})  \bm{\delta \xi}_j)^{\wedge} \right] \right)^\vee \\
+&amp; \approx \bm{e}_{ij} + \frac{\partial \bm{e}_{ij}}{\partial \bm{\delta \xi}_i} \bm{\delta \xi}_i + \frac{\partial \bm{e}_{ij}}{\partial \bm{\delta \xi}_j} \bm{\delta \xi}_j
+\end{array}.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二行少了个右括号</t>
+    <rPh sb="0" eb="1">
+      <t>txh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fgg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tf</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>it</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dk</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>rtkg</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +1520,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1771,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2121,7 +2509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -2129,11 +2517,116 @@
         <v>84</v>
       </c>
     </row>
+    <row r="34" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="210" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="D23:D31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D39:D40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/errata.xlsx
+++ b/errata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxiang/Documents/OneDrive/文档/book/slambook/勘误-1704/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxiang/code/slambook/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="820" yWindow="2320" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1424,6 +1424,73 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>rtkg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.22 后更新</t>
+    <rPh sb="5" eb="6">
+      <t>rgk</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P40. 式(3.3)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\begin{equation}
+\label{eq:cross}
+\bm{a} \times \bm{b} = \left \left\| {\begin{array}{*{20}{c}}
+ \bm{i} &amp; \bm{j} &amp; \bm{k} \\
+ {{a_1}}&amp;{{a_2}}&amp;{{a_3}}\\
+ {{b_1}}&amp;{{b_2}}&amp;{{b_3}}
+ \end{array}} \right\| = \left[ \begin{array}{l}
+{a_2}{b_3} - {a_3}{b_2}\\
+{a_3}{b_1} - {a_1}{b_3}\\
+{a_1}{b_2} - {a_2}{b_1}
+\end{array} \right] = \left[ {\begin{array}{*{20}{c}}
+ 0&amp;{ - {a_3}}&amp;{{a_2}}\\
+ {{a_3}}&amp;0&amp;{ - {a_1}}\\
+ { - {a_2}}&amp;{{a_1}}&amp;0
+ \end{array}} \right] \bm{b} \buildrel \Delta \over = { \bm{a}^ \wedge } \bm{b}.
+\end{equation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步应该为行列式符号</t>
+    <rPh sb="0" eb="1">
+      <t>txh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yiyy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>o</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tf</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gq</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>aa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>twk</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1561,7 +1628,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B62B92FF-0512-41B6-A1C4-0D59C05EC9D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62B92FF-0512-41B6-A1C4-0D59C05EC9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1672,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29301C43-DDFF-4A13-8698-35A28ACD1034}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29301C43-DDFF-4A13-8698-35A28ACD1034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,6 +1918,44 @@
         <a:xfrm>
           <a:off x="2324100" y="18110200"/>
           <a:ext cx="2349500" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6083300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2099167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="28752800"/>
+          <a:ext cx="5956300" cy="1146667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2159,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2620,8 +2725,28 @@
         <v>112</v>
       </c>
     </row>
+    <row r="42" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="D23:D31"/>

--- a/errata.xlsx
+++ b/errata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="2320" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1491,6 +1491,125 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>twk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 更新</t>
+    <rPh sb="4" eb="5">
+      <t>gju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P213 代码上方</t>
+    <rPh sb="5" eb="6">
+      <t>wad</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/project/0.1/include/myslam/frame.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/project/0.1/include/myslam/mappoint.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheter</t>
+  </si>
+  <si>
+    <t>P229 代码第7行</t>
+    <rPh sb="5" eb="6">
+      <t>wad</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>txh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P268 代码24行</t>
+    <rPh sb="5" eb="6">
+      <t>wad</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observatoin</t>
+  </si>
+  <si>
+    <t>observation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P100 代码第15行</t>
+    <rPh sb="5" eb="6">
+      <t>wad</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>txh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;Eigen::Isometry3d&gt; poses; // 相机位姿</t>
+  </si>
+  <si>
+    <t>vector&lt;Eigen::Isometry3d, Eigen::aligned_allocator&lt;Eigen::Isometry3d&gt;&gt; poses; // 相机位姿</t>
+    <rPh sb="81" eb="82">
+      <t>shs</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wug</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>uqw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些机器上会报错</t>
+    <rPh sb="0" eb="1">
+      <t>e</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hxf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>smk</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wfc</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rbt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qaj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,13 +1702,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,7 +1747,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62B92FF-0512-41B6-A1C4-0D59C05EC9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B62B92FF-0512-41B6-A1C4-0D59C05EC9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1791,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29301C43-DDFF-4A13-8698-35A28ACD1034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29301C43-DDFF-4A13-8698-35A28ACD1034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,17 +2383,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="91.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2313,7 +2432,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2327,7 +2446,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -2339,7 +2458,7 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -2351,7 +2470,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2363,7 +2482,7 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2375,7 +2494,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2516,13 +2635,13 @@
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2530,81 +2649,81 @@
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -2623,11 +2742,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -2695,7 +2814,7 @@
       <c r="C39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2709,7 +2828,7 @@
       <c r="C40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="9"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" ht="210" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -2726,12 +2845,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -2744,8 +2863,64 @@
         <v>116</v>
       </c>
     </row>
+    <row r="45" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="B23:B31"/>
